--- a/LF/TAS/Guinee Bissau/gw_lf_tas1_3_fts_result_202206.xlsx
+++ b/LF/TAS/Guinee Bissau/gw_lf_tas1_3_fts_result_202206.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="346">
   <si>
     <t>type</t>
   </si>
@@ -99,76 +99,91 @@
     <t>yes</t>
   </si>
   <si>
+    <t>select_one district_list</t>
+  </si>
+  <si>
+    <t>d_district</t>
+  </si>
+  <si>
+    <t>Select the district</t>
+  </si>
+  <si>
+    <t>Sélectionner le district</t>
+  </si>
+  <si>
+    <t>select_one site_list</t>
+  </si>
+  <si>
+    <t>d_cluster_name</t>
+  </si>
+  <si>
+    <t>Select the site</t>
+  </si>
+  <si>
+    <t>Sélectionner ll'école</t>
+  </si>
+  <si>
+    <t>district_list = ${d_district}</t>
+  </si>
+  <si>
+    <t>select_one site_code</t>
+  </si>
+  <si>
+    <t>d_cluster_id</t>
+  </si>
+  <si>
+    <t>Enter the site ID</t>
+  </si>
+  <si>
+    <t>The three-digit code associated with each school</t>
+  </si>
+  <si>
+    <t>Entrer le code de l'école</t>
+  </si>
+  <si>
+    <t>Le code a trois chiffre associé à chaque école</t>
+  </si>
+  <si>
+    <t>. &gt; 99 and .&lt; 1000</t>
+  </si>
+  <si>
+    <t>The code must be a two-digit number between 99 and 1000</t>
+  </si>
+  <si>
+    <t>Le code doit être un nombre à deux chiffres entre 99 et 1000</t>
+  </si>
+  <si>
+    <t>site_list = ${d_cluster_name}</t>
+  </si>
+  <si>
+    <t>select_one id_list</t>
+  </si>
+  <si>
+    <t>d_IDType</t>
+  </si>
+  <si>
+    <t>Does a bar code need to be scanned on the diagnostic test?</t>
+  </si>
+  <si>
+    <t>Avez-vous besoin de scanner le code barre sur le test diagnostique</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>d_BarcodeID</t>
+  </si>
+  <si>
+    <t>Scan barcode now</t>
+  </si>
+  <si>
+    <t>Scanner le code-barres maintenant</t>
+  </si>
+  <si>
+    <t>${d_IDType} = "Scanner"</t>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>d_districrt</t>
-  </si>
-  <si>
-    <t>Select the evaluation unit (EU)</t>
-  </si>
-  <si>
-    <t>Sélectionner l'unité d'évaluation (UE)</t>
-  </si>
-  <si>
-    <t>d_commune</t>
-  </si>
-  <si>
-    <t>district_list = ${d_districrt}</t>
-  </si>
-  <si>
-    <t>d_cluster_id</t>
-  </si>
-  <si>
-    <t>Enter the cluster ID</t>
-  </si>
-  <si>
-    <t>The three-digit code associated with each school</t>
-  </si>
-  <si>
-    <t>Entrer le code de l'école</t>
-  </si>
-  <si>
-    <t>Le code a trois chiffre associé à chaque école</t>
-  </si>
-  <si>
-    <t>. &gt; 99 and .&lt; 1000</t>
-  </si>
-  <si>
-    <t>The code must be a two-digit number between 99 and 1000</t>
-  </si>
-  <si>
-    <t>Le code doit être un nombre à deux chiffres entre 99 et 1000</t>
-  </si>
-  <si>
-    <t>site_list = ${d_cluster_name}</t>
-  </si>
-  <si>
-    <t>select_one id_list</t>
-  </si>
-  <si>
-    <t>d_IDType</t>
-  </si>
-  <si>
-    <t>Does a bar code need to be scanned on the diagnostic test?</t>
-  </si>
-  <si>
-    <t>Avez-vous besoin de scanner le code barre sur le test diagnostique</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>d_BarcodeID</t>
-  </si>
-  <si>
-    <t>Scan barcode now</t>
-  </si>
-  <si>
-    <t>Scanner le code-barres maintenant</t>
-  </si>
-  <si>
-    <t>${d_IDType} = "Scanner"</t>
   </si>
   <si>
     <t>d_generatedid</t>
@@ -2180,12 +2195,12 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2328,17 +2343,17 @@
     </row>
     <row r="4" s="3" customFormat="1" spans="1:16">
       <c r="A4" s="12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="27"/>
@@ -2353,37 +2368,37 @@
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="28.5" spans="1:16">
       <c r="A5" s="12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="27"/>
@@ -2393,22 +2408,22 @@
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
       <c r="P5" s="12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="28.5" spans="1:16">
       <c r="A6" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="27"/>
@@ -2426,17 +2441,17 @@
     </row>
     <row r="7" s="3" customFormat="1" spans="1:16">
       <c r="A7" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="27"/>
@@ -2444,7 +2459,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="26"/>
       <c r="K7" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L7" s="13"/>
       <c r="M7" s="27" t="s">
@@ -2456,35 +2471,35 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="42.75" spans="1:16">
       <c r="A8" s="12" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="29" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="27" t="s">
@@ -2496,28 +2511,28 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:16">
       <c r="A9" s="12" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="30" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="27"/>
       <c r="H9" s="13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -2530,22 +2545,22 @@
     </row>
     <row r="10" s="3" customFormat="1" ht="28.5" spans="1:16">
       <c r="A10" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -2562,17 +2577,17 @@
     </row>
     <row r="11" s="3" customFormat="1" spans="1:16">
       <c r="A11" s="12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="30" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="12"/>
@@ -2580,7 +2595,7 @@
       <c r="I11" s="38"/>
       <c r="J11" s="31"/>
       <c r="K11" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="27" t="s">
@@ -2592,17 +2607,17 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:16">
       <c r="A12" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="30" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="12"/>
@@ -2610,7 +2625,7 @@
       <c r="I12" s="38"/>
       <c r="J12" s="31"/>
       <c r="K12" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L12" s="13"/>
       <c r="M12" s="27" t="s">
@@ -2622,10 +2637,10 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:16">
       <c r="A13" s="12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -2637,7 +2652,7 @@
       <c r="J13" s="31"/>
       <c r="K13" s="16"/>
       <c r="L13" s="12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M13" s="27" t="s">
         <v>26</v>
@@ -2648,17 +2663,17 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="57" spans="1:16">
       <c r="A14" s="12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="30" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="12"/>
@@ -2666,7 +2681,7 @@
       <c r="I14" s="38"/>
       <c r="J14" s="31"/>
       <c r="K14" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="27"/>
@@ -2676,31 +2691,31 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:16">
       <c r="A15" s="12" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="32" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L15" s="12"/>
       <c r="M15" s="27" t="s">
@@ -2712,29 +2727,29 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="20"/>
       <c r="J16" s="32"/>
       <c r="K16" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L16" s="18"/>
       <c r="M16" s="27" t="s">
@@ -2746,17 +2761,17 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="32" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="18"/>
@@ -2764,7 +2779,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="32"/>
       <c r="K17" s="16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="27" t="s">
@@ -2776,17 +2791,17 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="32" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="18"/>
@@ -2794,7 +2809,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="32"/>
       <c r="K18" s="16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L18" s="18"/>
       <c r="M18" s="27" t="s">
@@ -2806,10 +2821,10 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
@@ -2820,10 +2835,10 @@
       <c r="I19" s="20"/>
       <c r="J19" s="32"/>
       <c r="K19" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
@@ -2832,10 +2847,10 @@
     </row>
     <row r="20" s="8" customFormat="1" spans="1:16">
       <c r="A20" s="12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -2847,7 +2862,7 @@
       <c r="J20" s="33"/>
       <c r="K20" s="12"/>
       <c r="L20" s="21" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
@@ -2856,17 +2871,17 @@
     </row>
     <row r="21" s="9" customFormat="1" spans="1:16">
       <c r="A21" s="16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="34" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="23"/>
@@ -2882,17 +2897,17 @@
     </row>
     <row r="22" ht="28.5" spans="1:16">
       <c r="A22" s="12" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="32" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="18"/>
@@ -2900,7 +2915,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="32"/>
       <c r="K22" s="16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
@@ -2910,17 +2925,17 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="32" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="18"/>
@@ -2936,10 +2951,10 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="20"/>
@@ -2958,10 +2973,10 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="20"/>
@@ -2991,9 +3006,9 @@
   <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B14"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3006,7 +3021,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -3018,3211 +3033,3211 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" t="s">
         <v>162</v>
-      </c>
-      <c r="C24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E26" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E27" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E29" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E30" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E31" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E35" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E38" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D39" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D40" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E41" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E42" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D43" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E44" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E51" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D54" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E54" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E56" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E57" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E58" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D60" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E60" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D61" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E61" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D62" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E62" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D63" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E63" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E64" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D65" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E65" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D66" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D67" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D68" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E68" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E69" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C70" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D70" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E70" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D71" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E71" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D72" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E72" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D73" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E73" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E74" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C75" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D75" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E75" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D76" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D77" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E78" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D79" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E79" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C80" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D80" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E80" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E81" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B82" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D82" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E82" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E83" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C84" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D84" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B85" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D85" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E85" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C86" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D86" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E86" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C87" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D87" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E87" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C88" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D88" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E88" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C89" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D89" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E89" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C90" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D90" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E90" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B91" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C91" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D91" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E91" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C92" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D92" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E92" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C93" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D93" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E93" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B94" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C94" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D94" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E94" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C95" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D95" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E95" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C96" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D96" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E96" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D97" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E97" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D98" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E98" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C99" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D99" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E99" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C100" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D100" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E100" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C101" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D101" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E101" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C102" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D102" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E102" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C103" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D103" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E103" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C104" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D104" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E104" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B105" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D105" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E105" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C106" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D106" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E106" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B107" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D107" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E107" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D108" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E108" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C109" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D109" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E109" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B110" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C110" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D110" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E110" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C111" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D111" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E111" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C112" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D112" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E112" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C113" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D113" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E113" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C114" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D114" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E114" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C115" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D115" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E115" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C116" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D116" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E116" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C117" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D117" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E117" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C118" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D118" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E118" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B119" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C119" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D119" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E119" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C120" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D120" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E120" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C121" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D121" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E121" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C122" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D122" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E122" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C123" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D123" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E123" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C124" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D124" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="E124" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C125" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D125" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E125" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C126" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D126" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E126" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C127" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D127" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E127" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B128" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C128" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D128" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="E128" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B129" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C129" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D129" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E129" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B130" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C130" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D130" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E130" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B131" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C131" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D131" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E131" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B132" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C132" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D132" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E132" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B133" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C133" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D133" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E133" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B134" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C134" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D134" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E134" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B135" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D135" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E135" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C136" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D136" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E136" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C137" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D137" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E137" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C138" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D138" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E138" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B139" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C139" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D139" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E139" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C140" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D140" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E140" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C141" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D141" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E141" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C142" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D142" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E142" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B143" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C143" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D143" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E143" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B144" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C144" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D144" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E144" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B145" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C145" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D145" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E145" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B146" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C146" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D146" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E146" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B147" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C147" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D147" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E147" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B148" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C148" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D148" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E148" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C149" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D149" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E149" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B150" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C150" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D150" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E150" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B151" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C151" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D151" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E151" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B152" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C152" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D152" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E152" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B153" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C153" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D153" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E153" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B154" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C154" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D154" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E154" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B155" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C155" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D155" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E155" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B156" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C156" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D156" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E156" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B157" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="C157" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D157" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E157" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B158" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C158" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D158" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="E158" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C159" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D159" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E159" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B160" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C160" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D160" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E160" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B161" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C161" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D161" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E161" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B162" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C162" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D162" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E162" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B163" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C163" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D163" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E163" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B164" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C164" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D164" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E164" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B165" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C165" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D165" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E165" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B166" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C166" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D166" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E166" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B167" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C167" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D167" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E167" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B168" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C168" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D168" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E168" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B169" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C169" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D169" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E169" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B170" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C170" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D170" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E170" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B171" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C171" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D171" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E171" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B172" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C172" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D172" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E172" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B173" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C173" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D173" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E173" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B174" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C174" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D174" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E174" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B175" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C175" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D175" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E175" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B176" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C176" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D176" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E176" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B177" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C177" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D177" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E177" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B178" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C178" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D178" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E178" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B179" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C179" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D179" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E179" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B180" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C180" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D180" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E180" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B181" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C181" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D181" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E181" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B182" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C182" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D182" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E182" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B183" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C183" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D183" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E183" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B184" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C184" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D184" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E184" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B185" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C185" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D185" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E185" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B186" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C186" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D186" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E186" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B187" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C187" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D187" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E187" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B188" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C188" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D188" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="E188" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B189" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C189" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D189" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E189" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B190" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C190" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D190" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="E190" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B191" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C191" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D191" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E191" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B192" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C192" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D192" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="E192" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B193" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C193" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D193" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E193" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B194" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C194" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D194" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="E194" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B195" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C195" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D195" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E195" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B197">
         <v>101</v>
@@ -6234,12 +6249,12 @@
         <v>101</v>
       </c>
       <c r="F197" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B198">
         <v>102</v>
@@ -6251,12 +6266,12 @@
         <v>102</v>
       </c>
       <c r="F198" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B199">
         <v>103</v>
@@ -6268,12 +6283,12 @@
         <v>103</v>
       </c>
       <c r="F199" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B200">
         <v>104</v>
@@ -6285,12 +6300,12 @@
         <v>104</v>
       </c>
       <c r="F200" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B201">
         <v>105</v>
@@ -6302,12 +6317,12 @@
         <v>105</v>
       </c>
       <c r="F201" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B202">
         <v>106</v>
@@ -6319,12 +6334,12 @@
         <v>106</v>
       </c>
       <c r="F202" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B203">
         <v>107</v>
@@ -6336,12 +6351,12 @@
         <v>107</v>
       </c>
       <c r="F203" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B204">
         <v>108</v>
@@ -6353,12 +6368,12 @@
         <v>108</v>
       </c>
       <c r="F204" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B205">
         <v>109</v>
@@ -6370,12 +6385,12 @@
         <v>109</v>
       </c>
       <c r="F205" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B206">
         <v>110</v>
@@ -6387,12 +6402,12 @@
         <v>110</v>
       </c>
       <c r="F206" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B207">
         <v>111</v>
@@ -6404,12 +6419,12 @@
         <v>111</v>
       </c>
       <c r="F207" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B208">
         <v>112</v>
@@ -6421,12 +6436,12 @@
         <v>112</v>
       </c>
       <c r="F208" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B209">
         <v>113</v>
@@ -6438,12 +6453,12 @@
         <v>113</v>
       </c>
       <c r="F209" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B210">
         <v>114</v>
@@ -6455,12 +6470,12 @@
         <v>114</v>
       </c>
       <c r="F210" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B211">
         <v>115</v>
@@ -6472,12 +6487,12 @@
         <v>115</v>
       </c>
       <c r="F211" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B212">
         <v>116</v>
@@ -6489,12 +6504,12 @@
         <v>116</v>
       </c>
       <c r="F212" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B213">
         <v>117</v>
@@ -6506,12 +6521,12 @@
         <v>117</v>
       </c>
       <c r="F213" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B214">
         <v>118</v>
@@ -6523,12 +6538,12 @@
         <v>118</v>
       </c>
       <c r="F214" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B215">
         <v>119</v>
@@ -6540,12 +6555,12 @@
         <v>119</v>
       </c>
       <c r="F215" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B216">
         <v>120</v>
@@ -6557,12 +6572,12 @@
         <v>120</v>
       </c>
       <c r="F216" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B217">
         <v>121</v>
@@ -6574,12 +6589,12 @@
         <v>121</v>
       </c>
       <c r="F217" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B218">
         <v>122</v>
@@ -6591,12 +6606,12 @@
         <v>122</v>
       </c>
       <c r="F218" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B219">
         <v>123</v>
@@ -6608,12 +6623,12 @@
         <v>123</v>
       </c>
       <c r="F219" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B220">
         <v>124</v>
@@ -6625,12 +6640,12 @@
         <v>124</v>
       </c>
       <c r="F220" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B221">
         <v>125</v>
@@ -6642,12 +6657,12 @@
         <v>125</v>
       </c>
       <c r="F221" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B222">
         <v>126</v>
@@ -6659,12 +6674,12 @@
         <v>126</v>
       </c>
       <c r="F222" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B223">
         <v>127</v>
@@ -6676,12 +6691,12 @@
         <v>127</v>
       </c>
       <c r="F223" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B224">
         <v>128</v>
@@ -6693,12 +6708,12 @@
         <v>128</v>
       </c>
       <c r="F224" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B225">
         <v>129</v>
@@ -6710,12 +6725,12 @@
         <v>129</v>
       </c>
       <c r="F225" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B226">
         <v>130</v>
@@ -6727,12 +6742,12 @@
         <v>130</v>
       </c>
       <c r="F226" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B227">
         <v>131</v>
@@ -6744,12 +6759,12 @@
         <v>131</v>
       </c>
       <c r="F227" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B228">
         <v>132</v>
@@ -6761,12 +6776,12 @@
         <v>132</v>
       </c>
       <c r="F228" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B229">
         <v>133</v>
@@ -6778,12 +6793,12 @@
         <v>133</v>
       </c>
       <c r="F229" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B230">
         <v>134</v>
@@ -6795,12 +6810,12 @@
         <v>134</v>
       </c>
       <c r="F230" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B231">
         <v>135</v>
@@ -6812,12 +6827,12 @@
         <v>135</v>
       </c>
       <c r="F231" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B232">
         <v>136</v>
@@ -6829,12 +6844,12 @@
         <v>136</v>
       </c>
       <c r="F232" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B233">
         <v>137</v>
@@ -6846,12 +6861,12 @@
         <v>137</v>
       </c>
       <c r="F233" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B234">
         <v>138</v>
@@ -6863,12 +6878,12 @@
         <v>138</v>
       </c>
       <c r="F234" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B235">
         <v>139</v>
@@ -6880,12 +6895,12 @@
         <v>139</v>
       </c>
       <c r="F235" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B236">
         <v>140</v>
@@ -6897,12 +6912,12 @@
         <v>140</v>
       </c>
       <c r="F236" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B237">
         <v>141</v>
@@ -6914,12 +6929,12 @@
         <v>141</v>
       </c>
       <c r="F237" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B238">
         <v>142</v>
@@ -6931,12 +6946,12 @@
         <v>142</v>
       </c>
       <c r="F238" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B239">
         <v>143</v>
@@ -6948,12 +6963,12 @@
         <v>143</v>
       </c>
       <c r="F239" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B240">
         <v>144</v>
@@ -6965,12 +6980,12 @@
         <v>144</v>
       </c>
       <c r="F240" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B241">
         <v>145</v>
@@ -6982,12 +6997,12 @@
         <v>145</v>
       </c>
       <c r="F241" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B242">
         <v>146</v>
@@ -6999,12 +7014,12 @@
         <v>146</v>
       </c>
       <c r="F242" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B243">
         <v>147</v>
@@ -7016,12 +7031,12 @@
         <v>147</v>
       </c>
       <c r="F243" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B244">
         <v>148</v>
@@ -7033,12 +7048,12 @@
         <v>148</v>
       </c>
       <c r="F244" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B245">
         <v>149</v>
@@ -7050,12 +7065,12 @@
         <v>149</v>
       </c>
       <c r="F245" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B246">
         <v>150</v>
@@ -7067,12 +7082,12 @@
         <v>150</v>
       </c>
       <c r="F246" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B247">
         <v>151</v>
@@ -7084,12 +7099,12 @@
         <v>151</v>
       </c>
       <c r="F247" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B248">
         <v>152</v>
@@ -7101,12 +7116,12 @@
         <v>152</v>
       </c>
       <c r="F248" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B249">
         <v>153</v>
@@ -7118,12 +7133,12 @@
         <v>153</v>
       </c>
       <c r="F249" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B250">
         <v>154</v>
@@ -7135,12 +7150,12 @@
         <v>154</v>
       </c>
       <c r="F250" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B251">
         <v>155</v>
@@ -7152,12 +7167,12 @@
         <v>155</v>
       </c>
       <c r="F251" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B252">
         <v>156</v>
@@ -7169,12 +7184,12 @@
         <v>156</v>
       </c>
       <c r="F252" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B253">
         <v>157</v>
@@ -7186,12 +7201,12 @@
         <v>157</v>
       </c>
       <c r="F253" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B254">
         <v>158</v>
@@ -7203,12 +7218,12 @@
         <v>158</v>
       </c>
       <c r="F254" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B255">
         <v>159</v>
@@ -7220,12 +7235,12 @@
         <v>159</v>
       </c>
       <c r="F255" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B256">
         <v>160</v>
@@ -7237,12 +7252,12 @@
         <v>160</v>
       </c>
       <c r="F256" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B257">
         <v>161</v>
@@ -7254,12 +7269,12 @@
         <v>161</v>
       </c>
       <c r="F257" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B258">
         <v>162</v>
@@ -7271,12 +7286,12 @@
         <v>162</v>
       </c>
       <c r="F258" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B259">
         <v>163</v>
@@ -7288,12 +7303,12 @@
         <v>163</v>
       </c>
       <c r="F259" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B260">
         <v>164</v>
@@ -7305,12 +7320,12 @@
         <v>164</v>
       </c>
       <c r="F260" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B261">
         <v>165</v>
@@ -7322,12 +7337,12 @@
         <v>165</v>
       </c>
       <c r="F261" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B262">
         <v>166</v>
@@ -7339,12 +7354,12 @@
         <v>166</v>
       </c>
       <c r="F262" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B263">
         <v>167</v>
@@ -7356,12 +7371,12 @@
         <v>167</v>
       </c>
       <c r="F263" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B264">
         <v>168</v>
@@ -7373,12 +7388,12 @@
         <v>168</v>
       </c>
       <c r="F264" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B265">
         <v>169</v>
@@ -7390,12 +7405,12 @@
         <v>169</v>
       </c>
       <c r="F265" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B266">
         <v>170</v>
@@ -7407,12 +7422,12 @@
         <v>170</v>
       </c>
       <c r="F266" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B267">
         <v>171</v>
@@ -7424,12 +7439,12 @@
         <v>171</v>
       </c>
       <c r="F267" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B268">
         <v>172</v>
@@ -7441,12 +7456,12 @@
         <v>172</v>
       </c>
       <c r="F268" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B269">
         <v>173</v>
@@ -7458,12 +7473,12 @@
         <v>173</v>
       </c>
       <c r="F269" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B270">
         <v>174</v>
@@ -7475,12 +7490,12 @@
         <v>174</v>
       </c>
       <c r="F270" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B271">
         <v>175</v>
@@ -7492,12 +7507,12 @@
         <v>175</v>
       </c>
       <c r="F271" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B272">
         <v>176</v>
@@ -7509,12 +7524,12 @@
         <v>176</v>
       </c>
       <c r="F272" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B273">
         <v>177</v>
@@ -7526,12 +7541,12 @@
         <v>177</v>
       </c>
       <c r="F273" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B274">
         <v>178</v>
@@ -7543,12 +7558,12 @@
         <v>178</v>
       </c>
       <c r="F274" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B275">
         <v>179</v>
@@ -7560,12 +7575,12 @@
         <v>179</v>
       </c>
       <c r="F275" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B276">
         <v>180</v>
@@ -7577,12 +7592,12 @@
         <v>180</v>
       </c>
       <c r="F276" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B277">
         <v>181</v>
@@ -7594,12 +7609,12 @@
         <v>181</v>
       </c>
       <c r="F277" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B278">
         <v>182</v>
@@ -7611,12 +7626,12 @@
         <v>182</v>
       </c>
       <c r="F278" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B279">
         <v>183</v>
@@ -7628,12 +7643,12 @@
         <v>183</v>
       </c>
       <c r="F279" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B280">
         <v>184</v>
@@ -7645,12 +7660,12 @@
         <v>184</v>
       </c>
       <c r="F280" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B281">
         <v>185</v>
@@ -7662,12 +7677,12 @@
         <v>185</v>
       </c>
       <c r="F281" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B282">
         <v>186</v>
@@ -7679,12 +7694,12 @@
         <v>186</v>
       </c>
       <c r="F282" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B283">
         <v>187</v>
@@ -7696,12 +7711,12 @@
         <v>187</v>
       </c>
       <c r="F283" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B284">
         <v>188</v>
@@ -7713,12 +7728,12 @@
         <v>188</v>
       </c>
       <c r="F284" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B285">
         <v>189</v>
@@ -7730,12 +7745,12 @@
         <v>189</v>
       </c>
       <c r="F285" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B286">
         <v>190</v>
@@ -7747,12 +7762,12 @@
         <v>190</v>
       </c>
       <c r="F286" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B287">
         <v>191</v>
@@ -7764,12 +7779,12 @@
         <v>191</v>
       </c>
       <c r="F287" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B288">
         <v>192</v>
@@ -7781,12 +7796,12 @@
         <v>192</v>
       </c>
       <c r="F288" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B289">
         <v>193</v>
@@ -7798,12 +7813,12 @@
         <v>193</v>
       </c>
       <c r="F289" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B290">
         <v>194</v>
@@ -7815,12 +7830,12 @@
         <v>194</v>
       </c>
       <c r="F290" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B291">
         <v>195</v>
@@ -7832,12 +7847,12 @@
         <v>195</v>
       </c>
       <c r="F291" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B292">
         <v>196</v>
@@ -7849,12 +7864,12 @@
         <v>196</v>
       </c>
       <c r="F292" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B293">
         <v>197</v>
@@ -7866,12 +7881,12 @@
         <v>197</v>
       </c>
       <c r="F293" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B294">
         <v>198</v>
@@ -7883,12 +7898,12 @@
         <v>198</v>
       </c>
       <c r="F294" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B295">
         <v>199</v>
@@ -7900,12 +7915,12 @@
         <v>199</v>
       </c>
       <c r="F295" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B296">
         <v>200</v>
@@ -7917,12 +7932,12 @@
         <v>200</v>
       </c>
       <c r="F296" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B297">
         <v>201</v>
@@ -7934,12 +7949,12 @@
         <v>201</v>
       </c>
       <c r="F297" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B298">
         <v>202</v>
@@ -7951,12 +7966,12 @@
         <v>202</v>
       </c>
       <c r="F298" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B299">
         <v>203</v>
@@ -7968,12 +7983,12 @@
         <v>203</v>
       </c>
       <c r="F299" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B300">
         <v>204</v>
@@ -7985,12 +8000,12 @@
         <v>204</v>
       </c>
       <c r="F300" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B301">
         <v>205</v>
@@ -8002,12 +8017,12 @@
         <v>205</v>
       </c>
       <c r="F301" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B302">
         <v>206</v>
@@ -8019,12 +8034,12 @@
         <v>206</v>
       </c>
       <c r="F302" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B303">
         <v>207</v>
@@ -8036,12 +8051,12 @@
         <v>207</v>
       </c>
       <c r="F303" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B304">
         <v>208</v>
@@ -8053,12 +8068,12 @@
         <v>208</v>
       </c>
       <c r="F304" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B305">
         <v>209</v>
@@ -8070,12 +8085,12 @@
         <v>209</v>
       </c>
       <c r="F305" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B306">
         <v>210</v>
@@ -8087,12 +8102,12 @@
         <v>210</v>
       </c>
       <c r="F306" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B307">
         <v>211</v>
@@ -8104,12 +8119,12 @@
         <v>211</v>
       </c>
       <c r="F307" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B308">
         <v>212</v>
@@ -8121,12 +8136,12 @@
         <v>212</v>
       </c>
       <c r="F308" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B309">
         <v>213</v>
@@ -8138,12 +8153,12 @@
         <v>213</v>
       </c>
       <c r="F309" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B310">
         <v>214</v>
@@ -8155,12 +8170,12 @@
         <v>214</v>
       </c>
       <c r="F310" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B311">
         <v>215</v>
@@ -8172,12 +8187,12 @@
         <v>215</v>
       </c>
       <c r="F311" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B312">
         <v>216</v>
@@ -8189,12 +8204,12 @@
         <v>216</v>
       </c>
       <c r="F312" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B313">
         <v>217</v>
@@ -8206,12 +8221,12 @@
         <v>217</v>
       </c>
       <c r="F313" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B314">
         <v>218</v>
@@ -8223,12 +8238,12 @@
         <v>218</v>
       </c>
       <c r="F314" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B315">
         <v>219</v>
@@ -8240,12 +8255,12 @@
         <v>219</v>
       </c>
       <c r="F315" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B316">
         <v>220</v>
@@ -8257,12 +8272,12 @@
         <v>220</v>
       </c>
       <c r="F316" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B317">
         <v>221</v>
@@ -8274,12 +8289,12 @@
         <v>221</v>
       </c>
       <c r="F317" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B318">
         <v>222</v>
@@ -8291,12 +8306,12 @@
         <v>222</v>
       </c>
       <c r="F318" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B319">
         <v>223</v>
@@ -8308,12 +8323,12 @@
         <v>223</v>
       </c>
       <c r="F319" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B320">
         <v>224</v>
@@ -8325,12 +8340,12 @@
         <v>224</v>
       </c>
       <c r="F320" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B321">
         <v>225</v>
@@ -8342,12 +8357,12 @@
         <v>225</v>
       </c>
       <c r="F321" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B322">
         <v>226</v>
@@ -8359,12 +8374,12 @@
         <v>226</v>
       </c>
       <c r="F322" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B323">
         <v>227</v>
@@ -8376,12 +8391,12 @@
         <v>227</v>
       </c>
       <c r="F323" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B324">
         <v>228</v>
@@ -8393,12 +8408,12 @@
         <v>228</v>
       </c>
       <c r="F324" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B325">
         <v>229</v>
@@ -8410,12 +8425,12 @@
         <v>229</v>
       </c>
       <c r="F325" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B326">
         <v>230</v>
@@ -8427,12 +8442,12 @@
         <v>230</v>
       </c>
       <c r="F326" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B327">
         <v>231</v>
@@ -8444,12 +8459,12 @@
         <v>231</v>
       </c>
       <c r="F327" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B328">
         <v>232</v>
@@ -8461,12 +8476,12 @@
         <v>232</v>
       </c>
       <c r="F328" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B329">
         <v>233</v>
@@ -8478,12 +8493,12 @@
         <v>233</v>
       </c>
       <c r="F329" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B330">
         <v>234</v>
@@ -8495,12 +8510,12 @@
         <v>234</v>
       </c>
       <c r="F330" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B331">
         <v>235</v>
@@ -8512,12 +8527,12 @@
         <v>235</v>
       </c>
       <c r="F331" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B332">
         <v>236</v>
@@ -8529,12 +8544,12 @@
         <v>236</v>
       </c>
       <c r="F332" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B333">
         <v>237</v>
@@ -8546,12 +8561,12 @@
         <v>237</v>
       </c>
       <c r="F333" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B334">
         <v>238</v>
@@ -8563,12 +8578,12 @@
         <v>238</v>
       </c>
       <c r="F334" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B335">
         <v>239</v>
@@ -8580,12 +8595,12 @@
         <v>239</v>
       </c>
       <c r="F335" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B336">
         <v>240</v>
@@ -8597,12 +8612,12 @@
         <v>240</v>
       </c>
       <c r="F336" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B337">
         <v>241</v>
@@ -8614,12 +8629,12 @@
         <v>241</v>
       </c>
       <c r="F337" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B338">
         <v>242</v>
@@ -8631,12 +8646,12 @@
         <v>242</v>
       </c>
       <c r="F338" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B339">
         <v>243</v>
@@ -8648,12 +8663,12 @@
         <v>243</v>
       </c>
       <c r="F339" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B340">
         <v>244</v>
@@ -8665,12 +8680,12 @@
         <v>244</v>
       </c>
       <c r="F340" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B341">
         <v>245</v>
@@ -8682,12 +8697,12 @@
         <v>245</v>
       </c>
       <c r="F341" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B342">
         <v>246</v>
@@ -8699,12 +8714,12 @@
         <v>246</v>
       </c>
       <c r="F342" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B343">
         <v>247</v>
@@ -8716,12 +8731,12 @@
         <v>247</v>
       </c>
       <c r="F343" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B344">
         <v>248</v>
@@ -8733,12 +8748,12 @@
         <v>248</v>
       </c>
       <c r="F344" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B345">
         <v>249</v>
@@ -8750,12 +8765,12 @@
         <v>249</v>
       </c>
       <c r="F345" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B346">
         <v>250</v>
@@ -8767,12 +8782,12 @@
         <v>250</v>
       </c>
       <c r="F346" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B347">
         <v>251</v>
@@ -8784,12 +8799,12 @@
         <v>251</v>
       </c>
       <c r="F347" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="348" spans="1:6">
       <c r="A348" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B348">
         <v>252</v>
@@ -8801,12 +8816,12 @@
         <v>252</v>
       </c>
       <c r="F348" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="349" spans="1:6">
       <c r="A349" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B349">
         <v>253</v>
@@ -8818,12 +8833,12 @@
         <v>253</v>
       </c>
       <c r="F349" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="350" spans="1:6">
       <c r="A350" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B350">
         <v>254</v>
@@ -8835,12 +8850,12 @@
         <v>254</v>
       </c>
       <c r="F350" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="351" spans="1:6">
       <c r="A351" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B351">
         <v>255</v>
@@ -8852,12 +8867,12 @@
         <v>255</v>
       </c>
       <c r="F351" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B352">
         <v>256</v>
@@ -8869,12 +8884,12 @@
         <v>256</v>
       </c>
       <c r="F352" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B353">
         <v>257</v>
@@ -8886,12 +8901,12 @@
         <v>257</v>
       </c>
       <c r="F353" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B354">
         <v>258</v>
@@ -8903,12 +8918,12 @@
         <v>258</v>
       </c>
       <c r="F354" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B355">
         <v>259</v>
@@ -8920,12 +8935,12 @@
         <v>259</v>
       </c>
       <c r="F355" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B356">
         <v>260</v>
@@ -8937,12 +8952,12 @@
         <v>260</v>
       </c>
       <c r="F356" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B357">
         <v>261</v>
@@ -8954,12 +8969,12 @@
         <v>261</v>
       </c>
       <c r="F357" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B358">
         <v>262</v>
@@ -8971,12 +8986,12 @@
         <v>262</v>
       </c>
       <c r="F358" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B359">
         <v>263</v>
@@ -8988,12 +9003,12 @@
         <v>263</v>
       </c>
       <c r="F359" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="360" spans="1:6">
       <c r="A360" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B360">
         <v>264</v>
@@ -9005,12 +9020,12 @@
         <v>264</v>
       </c>
       <c r="F360" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B361">
         <v>265</v>
@@ -9022,12 +9037,12 @@
         <v>265</v>
       </c>
       <c r="F361" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B362">
         <v>266</v>
@@ -9039,12 +9054,12 @@
         <v>266</v>
       </c>
       <c r="F362" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="363" spans="1:6">
       <c r="A363" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B363">
         <v>267</v>
@@ -9056,12 +9071,12 @@
         <v>267</v>
       </c>
       <c r="F363" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B364">
         <v>268</v>
@@ -9073,12 +9088,12 @@
         <v>268</v>
       </c>
       <c r="F364" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B365">
         <v>269</v>
@@ -9090,12 +9105,12 @@
         <v>269</v>
       </c>
       <c r="F365" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="366" spans="1:6">
       <c r="A366" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B366">
         <v>270</v>
@@ -9107,12 +9122,12 @@
         <v>270</v>
       </c>
       <c r="F366" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B367">
         <v>271</v>
@@ -9124,12 +9139,12 @@
         <v>271</v>
       </c>
       <c r="F367" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B368">
         <v>272</v>
@@ -9141,12 +9156,12 @@
         <v>272</v>
       </c>
       <c r="F368" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B369">
         <v>273</v>
@@ -9158,12 +9173,12 @@
         <v>273</v>
       </c>
       <c r="F369" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B370">
         <v>274</v>
@@ -9175,7 +9190,7 @@
         <v>274</v>
       </c>
       <c r="F370" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -9193,8 +9208,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -9205,24 +9220,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Guinee Bissau/gw_lf_tas1_3_fts_result_202206.xlsx
+++ b/LF/TAS/Guinee Bissau/gw_lf_tas1_3_fts_result_202206.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -3657,7 +3657,7 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(Jun.2022).6..TAS1.FL.-.Resultado.FTS.V2</t>
+    <t>(Jun 2022) 6. TAS1 FL - Resultado FTS V2</t>
   </si>
   <si>
     <t>gw_lf_tas1_3_fts_result_202206_v2</t>
@@ -3672,9 +3672,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3720,15 +3720,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3742,31 +3749,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3780,10 +3785,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3795,30 +3801,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3827,6 +3811,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3848,23 +3863,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3891,13 +3891,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3915,49 +3969,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3969,55 +4005,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4035,13 +4023,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4053,25 +4065,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4130,6 +4130,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4141,6 +4150,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4168,199 +4212,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4383,9 +4383,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4781,7 +4778,7 @@
   <sheetPr/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -4798,7 +4795,7 @@
     <col min="5" max="5" width="12.6222222222222" customWidth="1"/>
     <col min="6" max="6" width="16.8740740740741" customWidth="1"/>
     <col min="7" max="7" width="29.5037037037037" customWidth="1"/>
-    <col min="8" max="8" width="49.3777777777778" style="17" customWidth="1"/>
+    <col min="8" max="8" width="49.3777777777778" style="16" customWidth="1"/>
     <col min="9" max="9" width="12.6222222222222" customWidth="1"/>
     <col min="10" max="10" width="9.74814814814815" customWidth="1"/>
     <col min="11" max="11" width="35.3777777777778" customWidth="1"/>
@@ -4807,43 +4804,43 @@
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="36" spans="1:14">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -4851,359 +4848,359 @@
       </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="42.75" spans="1:13">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="20"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:13">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="20"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:13">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="20" t="s">
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:13">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="20" t="s">
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:13">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="20" t="s">
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:13">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="32" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:13">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="21" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="32" t="s">
+      <c r="I8" s="20"/>
+      <c r="J8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="42.75" spans="1:13">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="32" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" s="3" customFormat="1" spans="1:13">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="21" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="32" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="20"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:13">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="32" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="1:13">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="25" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="32" t="s">
+      <c r="I12" s="20"/>
+      <c r="J12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="1:13">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="25" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="32" t="s">
+      <c r="I13" s="20"/>
+      <c r="J13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:13">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="20" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="57" spans="1:13">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="25" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:13">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -5213,26 +5210,26 @@
         <v>74</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="32" t="s">
+      <c r="I16" s="19"/>
+      <c r="J16" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -5247,11 +5244,11 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="24" t="s">
         <v>72</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="31" t="s">
         <v>20</v>
       </c>
       <c r="K17" s="8"/>
@@ -5259,7 +5256,7 @@
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -5272,11 +5269,11 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="24" t="s">
         <v>79</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="31" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="8"/>
@@ -5284,7 +5281,7 @@
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -5297,11 +5294,11 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="24" t="s">
         <v>81</v>
       </c>
       <c r="I19" s="8"/>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="31" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="8"/>
@@ -5309,7 +5306,7 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -5320,10 +5317,10 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="19" t="s">
         <v>68</v>
       </c>
       <c r="J20" s="8"/>
@@ -5331,50 +5328,50 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" s="16" customFormat="1" spans="1:13">
-      <c r="A21" s="20" t="s">
+    <row r="21" s="15" customFormat="1" spans="1:13">
+      <c r="A21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="28" t="s">
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-    </row>
-    <row r="22" s="17" customFormat="1" spans="1:13">
-      <c r="A22" s="25" t="s">
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+    </row>
+    <row r="22" s="16" customFormat="1" spans="1:13">
+      <c r="A22" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -5387,7 +5384,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="25" t="s">
+      <c r="H23" s="24" t="s">
         <v>89</v>
       </c>
       <c r="I23" s="8"/>
@@ -5397,7 +5394,7 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -5410,7 +5407,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="30"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
@@ -5418,7 +5415,7 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -5429,7 +5426,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="30"/>
+      <c r="H25" s="29"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -5437,7 +5434,7 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>94</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -5448,7 +5445,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="30"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -5669,7 +5666,7 @@
       <c r="C17" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="11"/>
     </row>
     <row r="18" s="4" customFormat="1" spans="1:5">
@@ -5682,7 +5679,7 @@
       <c r="C18" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" s="4" customFormat="1" spans="1:5">
@@ -5695,7 +5692,7 @@
       <c r="C19" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="11"/>
     </row>
     <row r="20" s="4" customFormat="1" spans="1:5">
@@ -5708,7 +5705,7 @@
       <c r="C20" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="11"/>
     </row>
     <row r="21" s="4" customFormat="1" spans="1:5">
@@ -5721,14 +5718,14 @@
       <c r="C21" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="11"/>
     </row>
     <row r="22" s="4" customFormat="1" spans="1:5">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="11"/>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:5">
@@ -5741,7 +5738,7 @@
       <c r="C23" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>128</v>
       </c>
       <c r="E23" s="11"/>
@@ -5756,7 +5753,7 @@
       <c r="C24" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>128</v>
       </c>
       <c r="E24" s="11"/>
@@ -5771,7 +5768,7 @@
       <c r="C25" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>128</v>
       </c>
       <c r="E25" s="11"/>
@@ -5780,796 +5777,796 @@
       <c r="A26" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" s="4" customFormat="1" spans="1:5">
       <c r="A27" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:5">
       <c r="A28" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" s="4" customFormat="1" spans="1:5">
       <c r="A29" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="15"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" s="4" customFormat="1" spans="1:5">
       <c r="A30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" s="4" customFormat="1" spans="1:5">
       <c r="A31" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" s="4" customFormat="1" spans="1:5">
       <c r="A32" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" s="4" customFormat="1" spans="1:5">
       <c r="A33" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" s="4" customFormat="1" spans="1:5">
       <c r="A34" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" s="4" customFormat="1" spans="1:5">
       <c r="A35" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="15"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" s="4" customFormat="1" spans="1:5">
       <c r="A36" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="15"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" s="4" customFormat="1" spans="1:5">
       <c r="A37" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="15"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" s="4" customFormat="1" spans="1:5">
       <c r="A38" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" s="4" customFormat="1" spans="1:5">
       <c r="A39" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E39" s="15"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" s="4" customFormat="1" spans="1:5">
       <c r="A40" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="15"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" s="4" customFormat="1" spans="1:5">
       <c r="A41" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="15"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" s="4" customFormat="1" spans="1:5">
       <c r="A42" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E42" s="15"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" s="4" customFormat="1" spans="1:5">
       <c r="A43" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="15"/>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" s="4" customFormat="1" spans="1:5">
       <c r="A44" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="15"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" s="4" customFormat="1" spans="1:5">
       <c r="A45" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="15"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" s="4" customFormat="1" spans="1:5">
       <c r="A46" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="15"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" s="4" customFormat="1" spans="1:5">
       <c r="A47" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="15"/>
+      <c r="E47" s="14"/>
     </row>
     <row r="48" s="4" customFormat="1" spans="1:5">
       <c r="A48" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="15"/>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" s="4" customFormat="1" spans="1:5">
       <c r="A49" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E49" s="15"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" s="4" customFormat="1" spans="1:5">
       <c r="A50" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="15"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:5">
       <c r="A51" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="15"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" s="4" customFormat="1" spans="1:5">
       <c r="A52" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E52" s="15"/>
+      <c r="E52" s="14"/>
     </row>
     <row r="53" s="4" customFormat="1" spans="1:5">
       <c r="A53" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="15"/>
+      <c r="E53" s="14"/>
     </row>
     <row r="54" s="4" customFormat="1" spans="1:5">
       <c r="A54" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D54" s="15" t="s">
+      <c r="D54" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E54" s="15"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" s="4" customFormat="1" spans="1:5">
       <c r="A55" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="15" t="s">
+      <c r="D55" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E55" s="15"/>
+      <c r="E55" s="14"/>
     </row>
     <row r="56" s="4" customFormat="1" spans="1:5">
       <c r="A56" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="15"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" s="4" customFormat="1" spans="1:5">
       <c r="A57" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D57" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="15"/>
+      <c r="E57" s="14"/>
     </row>
     <row r="58" s="4" customFormat="1" spans="1:5">
       <c r="A58" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="D58" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E58" s="15"/>
+      <c r="E58" s="14"/>
     </row>
     <row r="59" s="4" customFormat="1" spans="1:5">
       <c r="A59" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="15"/>
+      <c r="E59" s="14"/>
     </row>
     <row r="60" s="4" customFormat="1" spans="1:5">
       <c r="A60" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="D60" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E60" s="15"/>
+      <c r="E60" s="14"/>
     </row>
     <row r="61" s="4" customFormat="1" spans="1:5">
       <c r="A61" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="15"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="62" s="4" customFormat="1" spans="1:5">
       <c r="A62" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="D62" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E62" s="15"/>
+      <c r="E62" s="14"/>
     </row>
     <row r="63" s="4" customFormat="1" spans="1:5">
       <c r="A63" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D63" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="15"/>
+      <c r="E63" s="14"/>
     </row>
     <row r="64" s="4" customFormat="1" spans="1:5">
       <c r="A64" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E64" s="15"/>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" s="4" customFormat="1" spans="1:5">
       <c r="A65" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="15"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" s="4" customFormat="1" spans="1:5">
       <c r="A66" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E66" s="15"/>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" s="4" customFormat="1" spans="1:5">
       <c r="A67" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="D67" s="15" t="s">
+      <c r="D67" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E67" s="15"/>
+      <c r="E67" s="14"/>
     </row>
     <row r="68" s="4" customFormat="1" spans="1:5">
       <c r="A68" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D68" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E68" s="15"/>
+      <c r="E68" s="14"/>
     </row>
     <row r="69" s="4" customFormat="1" spans="1:5">
       <c r="A69" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E69" s="15"/>
+      <c r="E69" s="14"/>
     </row>
     <row r="70" s="4" customFormat="1" spans="1:5">
       <c r="A70" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E70" s="15"/>
+      <c r="E70" s="14"/>
     </row>
     <row r="71" s="4" customFormat="1" spans="1:5">
       <c r="A71" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E71" s="15"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" s="4" customFormat="1" spans="1:5">
       <c r="A72" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="15"/>
+      <c r="E72" s="14"/>
     </row>
     <row r="73" s="4" customFormat="1" spans="1:5">
       <c r="A73" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E73" s="15"/>
+      <c r="E73" s="14"/>
     </row>
     <row r="74" s="4" customFormat="1" spans="1:5">
       <c r="A74" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E74" s="15"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" s="4" customFormat="1" spans="1:5">
       <c r="A75" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D75" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="15"/>
+      <c r="E75" s="14"/>
     </row>
     <row r="76" s="4" customFormat="1" spans="1:5">
       <c r="A76" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E76" s="15"/>
+      <c r="E76" s="14"/>
     </row>
     <row r="77" s="4" customFormat="1" spans="1:5">
       <c r="A77" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E77" s="15"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" s="4" customFormat="1" spans="1:5">
       <c r="A78" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="E78" s="15"/>
+      <c r="E78" s="14"/>
     </row>
     <row r="79" customFormat="1" spans="1:1">
       <c r="A79" s="11"/>
@@ -35346,8 +35343,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/LF/TAS/Guinee Bissau/gw_lf_tas1_3_fts_result_202206.xlsx
+++ b/LF/TAS/Guinee Bissau/gw_lf_tas1_3_fts_result_202206.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <t>O formato deve ser 1234-1234-567 Apenas a segunda e terceira partes do código</t>
   </si>
   <si>
-    <t>${d_IDType} = "Generation automatique"</t>
+    <t>${d_IDType} = "ID_generation"</t>
   </si>
   <si>
     <t>d_lotnumber1</t>
@@ -1164,9 +1164,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1241,16 +1241,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1272,19 +1279,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1295,8 +1301,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1310,21 +1325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1332,8 +1332,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1348,15 +1356,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1395,7 +1395,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,13 +1449,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,61 +1527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1491,13 +1545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,61 +1557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,7 +1626,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,7 +1635,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1670,6 +1670,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1687,17 +1698,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1707,136 +1707,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2270,12 +2270,12 @@
   <sheetPr/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2956,8 +2956,8 @@
   <sheetPr/>
   <dimension ref="A1:F471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A17" sqref="$A17:$XFD471"/>
     </sheetView>

--- a/LF/TAS/Guinee Bissau/gw_lf_tas1_3_fts_result_202206.xlsx
+++ b/LF/TAS/Guinee Bissau/gw_lf_tas1_3_fts_result_202206.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(Jun 2022) 6. TAS1 FL - Resultado FTS (Phase 2) V2</t>
+    <t>(Aug 2022) 6. TAS1 FL - Resultado FTS (Phase 2) V2</t>
   </si>
   <si>
     <t>gw_lf_tas1_3_fts_result_202206_phase2_v2</t>
@@ -2331,7 +2331,7 @@
   <sheetPr/>
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A17" sqref="$A17:$XFD85"/>
@@ -3459,8 +3459,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/LF/TAS/Guinee Bissau/gw_lf_tas1_3_fts_result_202206.xlsx
+++ b/LF/TAS/Guinee Bissau/gw_lf_tas1_3_fts_result_202206.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="172">
   <si>
     <t>type</t>
   </si>
@@ -417,28 +417,28 @@
     <t>Bafata</t>
   </si>
   <si>
+    <t>Bambadinca</t>
+  </si>
+  <si>
+    <t>Cambadju</t>
+  </si>
+  <si>
+    <t>Cosse</t>
+  </si>
+  <si>
+    <t>Ga-Ture</t>
+  </si>
+  <si>
+    <t>Geba</t>
+  </si>
+  <si>
+    <t>Sare Bacar</t>
+  </si>
+  <si>
+    <t>Pitche</t>
+  </si>
+  <si>
     <t>Gabu</t>
-  </si>
-  <si>
-    <t>Bambadinca</t>
-  </si>
-  <si>
-    <t>Cambadju</t>
-  </si>
-  <si>
-    <t>Cosse</t>
-  </si>
-  <si>
-    <t>Ga-Ture</t>
-  </si>
-  <si>
-    <t>Geba</t>
-  </si>
-  <si>
-    <t>Sare Bacar</t>
-  </si>
-  <si>
-    <t>Pitche</t>
   </si>
   <si>
     <t>Cidade de Bafata Bairro 4</t>
@@ -552,9 +552,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -599,6 +599,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -615,17 +623,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,39 +653,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,7 +675,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,28 +691,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,13 +706,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -743,8 +727,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,7 +777,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,43 +879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,13 +897,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,31 +933,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,55 +951,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,6 +1010,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1025,11 +1049,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,7 +1068,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,181 +1092,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2329,12 +2329,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="$A17:$XFD85"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2534,27 +2534,30 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:3">
-      <c r="A18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -2641,33 +2644,33 @@
         <v>135</v>
       </c>
       <c r="D26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1"/>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1"/>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
         <v>128</v>
@@ -2678,10 +2681,10 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E30" t="s">
         <v>128</v>
@@ -2692,10 +2695,10 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
         <v>128</v>
@@ -2706,10 +2709,10 @@
         <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
         <v>128</v>
@@ -2720,10 +2723,10 @@
         <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E33" t="s">
         <v>128</v>
@@ -2734,10 +2737,10 @@
         <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E34" t="s">
         <v>128</v>
@@ -2748,10 +2751,10 @@
         <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
         <v>128</v>
@@ -2762,10 +2765,10 @@
         <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
         <v>128</v>
@@ -2776,10 +2779,10 @@
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E37" t="s">
         <v>128</v>
@@ -2790,13 +2793,13 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2804,13 +2807,13 @@
         <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2818,13 +2821,13 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2832,13 +2835,13 @@
         <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2846,13 +2849,13 @@
         <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2860,13 +2863,13 @@
         <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2874,13 +2877,13 @@
         <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2888,10 +2891,10 @@
         <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E45" t="s">
         <v>130</v>
@@ -2902,13 +2905,13 @@
         <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2916,13 +2919,13 @@
         <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2930,13 +2933,13 @@
         <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2944,10 +2947,10 @@
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E49" t="s">
         <v>131</v>
@@ -2958,10 +2961,10 @@
         <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s">
         <v>132</v>
@@ -2972,10 +2975,10 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E51" t="s">
         <v>133</v>
@@ -2986,13 +2989,13 @@
         <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3000,13 +3003,13 @@
         <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="E53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3014,13 +3017,13 @@
         <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3028,42 +3031,42 @@
         <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" t="s">
-        <v>163</v>
-      </c>
-      <c r="E56" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1"/>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57">
+        <v>1001</v>
+      </c>
+      <c r="C57">
+        <v>1001</v>
+      </c>
+      <c r="F57" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>164</v>
       </c>
       <c r="B58">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C58">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F58" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3071,13 +3074,13 @@
         <v>164</v>
       </c>
       <c r="B59">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C59">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F59" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3085,13 +3088,13 @@
         <v>164</v>
       </c>
       <c r="B60">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C60">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F60" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3099,13 +3102,13 @@
         <v>164</v>
       </c>
       <c r="B61">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C61">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F61" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3113,13 +3116,13 @@
         <v>164</v>
       </c>
       <c r="B62">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C62">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3127,13 +3130,13 @@
         <v>164</v>
       </c>
       <c r="B63">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C63">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3141,13 +3144,13 @@
         <v>164</v>
       </c>
       <c r="B64">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C64">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F64" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3155,13 +3158,13 @@
         <v>164</v>
       </c>
       <c r="B65">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C65">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3169,13 +3172,13 @@
         <v>164</v>
       </c>
       <c r="B66">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C66">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F66" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3183,13 +3186,13 @@
         <v>164</v>
       </c>
       <c r="B67">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C67">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3197,13 +3200,13 @@
         <v>164</v>
       </c>
       <c r="B68">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C68">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F68" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3211,13 +3214,13 @@
         <v>164</v>
       </c>
       <c r="B69">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C69">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F69" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3225,13 +3228,13 @@
         <v>164</v>
       </c>
       <c r="B70">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C70">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3239,13 +3242,13 @@
         <v>164</v>
       </c>
       <c r="B71">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C71">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F71" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3253,13 +3256,13 @@
         <v>164</v>
       </c>
       <c r="B72">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C72">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3267,13 +3270,13 @@
         <v>164</v>
       </c>
       <c r="B73">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C73">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F73" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3281,13 +3284,13 @@
         <v>164</v>
       </c>
       <c r="B74">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C74">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F74" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3295,13 +3298,13 @@
         <v>164</v>
       </c>
       <c r="B75">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C75">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F75" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3309,13 +3312,13 @@
         <v>164</v>
       </c>
       <c r="B76">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C76">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3323,13 +3326,13 @@
         <v>164</v>
       </c>
       <c r="B77">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C77">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3337,13 +3340,13 @@
         <v>164</v>
       </c>
       <c r="B78">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C78">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F78" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3351,13 +3354,13 @@
         <v>164</v>
       </c>
       <c r="B79">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C79">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3365,13 +3368,13 @@
         <v>164</v>
       </c>
       <c r="B80">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C80">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3379,13 +3382,13 @@
         <v>164</v>
       </c>
       <c r="B81">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C81">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F81" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3393,13 +3396,13 @@
         <v>164</v>
       </c>
       <c r="B82">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C82">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F82" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3407,13 +3410,13 @@
         <v>164</v>
       </c>
       <c r="B83">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C83">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3421,27 +3424,13 @@
         <v>164</v>
       </c>
       <c r="B84">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C84">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F84" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>164</v>
-      </c>
-      <c r="B85">
-        <v>1028</v>
-      </c>
-      <c r="C85">
-        <v>1028</v>
-      </c>
-      <c r="F85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3459,7 +3448,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
